--- a/Filtered_By_Region/CAR/CAR_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/CAR/CAR_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS502"/>
+  <dimension ref="A1:AU502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -778,7 +788,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -897,7 +912,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1016,7 +1036,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1135,7 +1160,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1254,7 +1284,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1373,7 +1408,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1492,7 +1532,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1611,7 +1656,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1730,7 +1780,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1849,7 +1904,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1968,7 +2028,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2082,7 +2147,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2196,7 +2266,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2310,7 +2385,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2424,7 +2504,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2538,7 +2623,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2652,7 +2742,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2766,7 +2861,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2880,7 +2980,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2994,7 +3099,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3108,7 +3218,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3222,7 +3337,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3336,7 +3456,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3455,7 +3580,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3574,7 +3704,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3693,7 +3828,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3812,7 +3952,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3931,7 +4076,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4050,7 +4200,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4169,7 +4324,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4288,7 +4448,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4407,7 +4572,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4526,7 +4696,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4645,7 +4820,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4764,7 +4944,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4883,7 +5068,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5002,7 +5192,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5121,7 +5316,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5240,7 +5440,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5359,7 +5564,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5478,7 +5688,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5597,7 +5812,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5716,7 +5936,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5835,7 +6060,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5954,7 +6184,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6073,7 +6308,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6192,7 +6432,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6311,7 +6556,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6430,7 +6680,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6544,7 +6799,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6658,7 +6918,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6772,7 +7037,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6886,7 +7156,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7000,7 +7275,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7114,7 +7394,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7228,7 +7513,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7342,7 +7632,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7456,7 +7751,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7570,7 +7870,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7684,7 +7989,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7798,7 +8108,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7912,7 +8227,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8026,7 +8346,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8140,7 +8465,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8254,7 +8584,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8368,7 +8703,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8490,7 +8830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8612,7 +8952,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8734,7 +9074,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8856,7 +9196,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8978,7 +9318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9100,7 +9440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9222,7 +9562,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9344,7 +9684,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9466,7 +9806,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9588,7 +9928,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9710,7 +10050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9865,7 +10205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10020,7 +10360,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10137,7 +10477,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10254,7 +10594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10371,7 +10711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10488,7 +10828,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10605,7 +10945,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10722,7 +11062,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10877,7 +11217,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10994,7 +11334,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11111,7 +11451,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11266,7 +11606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11383,7 +11723,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11538,7 +11878,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11693,7 +12033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11848,7 +12188,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12003,7 +12343,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12120,7 +12460,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12275,7 +12615,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12430,7 +12770,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12585,7 +12925,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12702,7 +13042,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12819,7 +13159,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12974,7 +13314,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13091,7 +13431,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13208,7 +13548,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13363,7 +13703,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13480,7 +13820,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13597,7 +13937,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13742,7 +14082,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13859,7 +14199,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13976,7 +14316,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14093,7 +14433,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14210,7 +14550,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14327,7 +14667,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14444,7 +14784,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14561,7 +14901,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14678,7 +15018,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14795,7 +15135,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14912,7 +15252,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15029,7 +15369,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15146,7 +15486,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15263,7 +15603,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15380,7 +15720,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15497,7 +15837,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15614,7 +15954,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15731,7 +16071,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15848,7 +16188,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15965,7 +16305,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16082,7 +16422,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16199,7 +16539,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16316,7 +16656,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16433,7 +16773,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16550,7 +16890,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16667,7 +17007,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16784,7 +17124,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16901,7 +17241,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17018,7 +17358,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17135,7 +17475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17252,7 +17592,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17369,7 +17709,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17486,7 +17826,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17603,7 +17943,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17720,7 +18060,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17837,7 +18177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17954,7 +18294,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18071,7 +18411,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18188,7 +18528,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18305,7 +18645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18422,7 +18762,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18539,7 +18879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18656,7 +18996,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18773,7 +19113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18890,7 +19230,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19007,7 +19347,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19124,7 +19464,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19241,7 +19581,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19358,7 +19698,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19475,7 +19815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19592,7 +19932,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19709,7 +20049,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19826,7 +20166,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19943,7 +20283,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20060,7 +20400,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20177,7 +20517,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AS163" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20294,7 +20639,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20411,7 +20756,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20528,7 +20873,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20645,7 +20990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20762,7 +21107,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20879,7 +21224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20996,7 +21341,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21113,7 +21458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21230,7 +21575,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21347,7 +21692,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21464,7 +21809,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21581,7 +21926,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21698,7 +22043,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21815,7 +22160,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21932,7 +22277,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22049,7 +22394,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22166,7 +22511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22283,7 +22628,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22400,7 +22745,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22517,7 +22862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22631,7 +22976,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22745,7 +23090,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22859,7 +23204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22973,7 +23318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23087,7 +23432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23201,7 +23546,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23315,7 +23660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23429,7 +23774,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23543,7 +23888,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23664,6 +24009,11 @@
       </c>
       <c r="AR193" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23783,6 +24133,11 @@
       </c>
       <c r="AR194" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23902,6 +24257,11 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24021,6 +24381,11 @@
       </c>
       <c r="AR196" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24140,6 +24505,11 @@
       </c>
       <c r="AR197" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24259,6 +24629,11 @@
       </c>
       <c r="AR198" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24378,6 +24753,11 @@
       </c>
       <c r="AR199" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24497,6 +24877,11 @@
       </c>
       <c r="AR200" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24616,6 +25001,11 @@
       </c>
       <c r="AR201" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24735,6 +25125,11 @@
       </c>
       <c r="AR202" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24852,7 +25247,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24973,6 +25368,11 @@
       </c>
       <c r="AR204" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25092,6 +25492,11 @@
       </c>
       <c r="AR205" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25211,6 +25616,11 @@
       </c>
       <c r="AR206" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25330,6 +25740,11 @@
       </c>
       <c r="AR207" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25447,7 +25862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25561,7 +25976,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25675,7 +26090,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25789,7 +26204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25903,7 +26318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26017,7 +26432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26131,7 +26546,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26245,7 +26660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26359,7 +26774,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26478,7 +26893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26597,7 +27012,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26716,7 +27131,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26835,7 +27250,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26954,7 +27369,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27073,7 +27488,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27192,7 +27607,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27311,7 +27726,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27430,7 +27845,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27549,7 +27964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27668,7 +28083,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27787,7 +28202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27906,7 +28321,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28025,7 +28440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28144,7 +28559,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28263,7 +28678,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28382,7 +28797,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28501,7 +28916,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28620,7 +29035,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28739,7 +29154,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28858,7 +29273,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28977,7 +29392,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29096,7 +29511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29215,7 +29630,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29334,7 +29749,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29453,7 +29868,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29572,7 +29987,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29691,7 +30106,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29810,7 +30225,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29929,7 +30344,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30048,7 +30463,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30167,7 +30582,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30286,7 +30701,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30405,7 +30820,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30524,7 +30939,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30643,7 +31058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30762,7 +31177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30881,7 +31296,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31000,7 +31415,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31119,7 +31534,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31238,7 +31653,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31357,7 +31772,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31476,7 +31891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31595,7 +32010,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31714,7 +32129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31833,7 +32248,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31952,7 +32367,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32071,7 +32486,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32190,7 +32605,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32309,7 +32724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32423,7 +32838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32542,7 +32957,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32656,7 +33071,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32775,7 +33190,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32894,7 +33309,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33013,7 +33428,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33132,7 +33547,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33251,7 +33666,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33370,7 +33785,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33489,7 +33904,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33608,7 +34023,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33727,7 +34142,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33846,7 +34261,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33965,7 +34380,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34084,7 +34499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34203,7 +34618,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34322,7 +34737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34441,7 +34856,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34560,7 +34975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34679,7 +35094,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34798,7 +35213,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34917,7 +35332,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35036,7 +35451,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35155,7 +35570,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35274,7 +35689,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35393,7 +35808,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35512,7 +35927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35631,7 +36046,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35750,7 +36165,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35869,7 +36284,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35988,7 +36403,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36107,7 +36522,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36226,7 +36641,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36345,7 +36760,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36464,7 +36879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36583,7 +36998,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36702,7 +37117,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36821,7 +37236,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36940,7 +37355,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR305" t="inlineStr">
+      <c r="AT305" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37059,7 +37474,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37178,7 +37593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37297,7 +37712,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37416,7 +37831,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37535,7 +37950,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37649,7 +38064,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR311" t="inlineStr">
+      <c r="AT311" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37768,7 +38183,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37882,7 +38297,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38001,7 +38416,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38115,7 +38530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38234,7 +38649,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38353,7 +38768,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38467,7 +38882,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38581,7 +38996,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38695,7 +39110,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38809,7 +39224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38923,7 +39338,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39037,7 +39452,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39156,7 +39571,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39275,7 +39690,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39394,7 +39809,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39508,7 +39923,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39622,7 +40037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39736,7 +40151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39850,7 +40265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39964,7 +40379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40083,7 +40498,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40197,7 +40612,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR333" t="inlineStr">
+      <c r="AT333" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40316,7 +40731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40430,7 +40845,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40549,7 +40964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40663,7 +41078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40777,7 +41192,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40896,7 +41311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41015,7 +41430,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR340" t="inlineStr">
+      <c r="AT340" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41129,7 +41544,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41243,7 +41658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41362,7 +41777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41481,7 +41896,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR344" t="inlineStr">
+      <c r="AT344" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41600,7 +42015,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41714,7 +42129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR346" t="inlineStr">
+      <c r="AT346" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41828,7 +42243,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR347" t="inlineStr">
+      <c r="AT347" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41937,7 +42352,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR348" t="inlineStr">
+      <c r="AT348" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42046,7 +42461,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR349" t="inlineStr">
+      <c r="AT349" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42155,7 +42570,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR350" t="inlineStr">
+      <c r="AT350" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42264,7 +42679,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR351" t="inlineStr">
+      <c r="AT351" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42375,6 +42790,11 @@
       </c>
       <c r="AR352" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT352" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42482,7 +42902,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR353" t="inlineStr">
+      <c r="AT353" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42591,7 +43011,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR354" t="inlineStr">
+      <c r="AT354" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42700,7 +43120,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR355" t="inlineStr">
+      <c r="AT355" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42811,6 +43231,11 @@
       </c>
       <c r="AR356" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT356" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42918,7 +43343,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR357" t="inlineStr">
+      <c r="AT357" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43027,7 +43452,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR358" t="inlineStr">
+      <c r="AT358" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43136,7 +43561,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR359" t="inlineStr">
+      <c r="AT359" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43247,6 +43672,11 @@
       </c>
       <c r="AR360" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT360" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43354,7 +43784,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR361" t="inlineStr">
+      <c r="AT361" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43463,7 +43893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR362" t="inlineStr">
+      <c r="AT362" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43574,6 +44004,11 @@
       </c>
       <c r="AR363" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT363" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43681,7 +44116,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR364" t="inlineStr">
+      <c r="AT364" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43792,6 +44227,11 @@
       </c>
       <c r="AR365" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT365" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43899,7 +44339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR366" t="inlineStr">
+      <c r="AT366" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44008,7 +44448,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR367" t="inlineStr">
+      <c r="AT367" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44117,7 +44557,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR368" t="inlineStr">
+      <c r="AT368" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44228,6 +44668,11 @@
       </c>
       <c r="AR369" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT369" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44335,7 +44780,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR370" t="inlineStr">
+      <c r="AT370" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44444,7 +44889,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR371" t="inlineStr">
+      <c r="AT371" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44553,7 +44998,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR372" t="inlineStr">
+      <c r="AT372" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44662,7 +45107,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR373" t="inlineStr">
+      <c r="AT373" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44773,6 +45218,11 @@
       </c>
       <c r="AR374" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT374" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44880,7 +45330,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR375" t="inlineStr">
+      <c r="AT375" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44989,7 +45439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR376" t="inlineStr">
+      <c r="AT376" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45098,7 +45548,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR377" t="inlineStr">
+      <c r="AT377" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45209,6 +45659,11 @@
       </c>
       <c r="AR378" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT378" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45316,7 +45771,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR379" t="inlineStr">
+      <c r="AT379" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45425,7 +45880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR380" t="inlineStr">
+      <c r="AT380" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45534,7 +45989,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR381" t="inlineStr">
+      <c r="AT381" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45643,7 +46098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR382" t="inlineStr">
+      <c r="AT382" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45752,7 +46207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR383" t="inlineStr">
+      <c r="AT383" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45861,7 +46316,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR384" t="inlineStr">
+      <c r="AT384" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45970,7 +46425,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR385" t="inlineStr">
+      <c r="AT385" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46079,7 +46534,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR386" t="inlineStr">
+      <c r="AT386" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46188,7 +46643,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR387" t="inlineStr">
+      <c r="AT387" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46297,7 +46752,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR388" t="inlineStr">
+      <c r="AT388" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46416,7 +46871,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR389" t="inlineStr">
+      <c r="AT389" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46535,7 +46990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR390" t="inlineStr">
+      <c r="AT390" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46654,7 +47109,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR391" t="inlineStr">
+      <c r="AT391" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46773,7 +47228,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR392" t="inlineStr">
+      <c r="AT392" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46892,7 +47347,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR393" t="inlineStr">
+      <c r="AT393" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47011,7 +47466,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR394" t="inlineStr">
+      <c r="AT394" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47132,6 +47587,11 @@
       </c>
       <c r="AR395" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT395" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47249,7 +47709,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR396" t="inlineStr">
+      <c r="AT396" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47358,7 +47818,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR397" t="inlineStr">
+      <c r="AT397" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47467,7 +47927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR398" t="inlineStr">
+      <c r="AT398" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47576,7 +48036,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR399" t="inlineStr">
+      <c r="AT399" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47685,7 +48145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR400" t="inlineStr">
+      <c r="AT400" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47794,7 +48254,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR401" t="inlineStr">
+      <c r="AT401" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47903,7 +48363,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR402" t="inlineStr">
+      <c r="AT402" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48014,6 +48474,11 @@
       </c>
       <c r="AR403" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT403" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48121,7 +48586,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR404" t="inlineStr">
+      <c r="AT404" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48230,7 +48695,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR405" t="inlineStr">
+      <c r="AT405" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48339,7 +48804,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR406" t="inlineStr">
+      <c r="AT406" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48450,6 +48915,11 @@
       </c>
       <c r="AR407" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT407" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48557,7 +49027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR408" t="inlineStr">
+      <c r="AT408" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48668,6 +49138,11 @@
       </c>
       <c r="AR409" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT409" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48775,7 +49250,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR410" t="inlineStr">
+      <c r="AT410" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48884,7 +49359,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR411" t="inlineStr">
+      <c r="AT411" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48993,7 +49468,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR412" t="inlineStr">
+      <c r="AT412" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49102,7 +49577,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR413" t="inlineStr">
+      <c r="AT413" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49211,7 +49686,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR414" t="inlineStr">
+      <c r="AT414" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49322,6 +49797,11 @@
       </c>
       <c r="AR415" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT415" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -49429,7 +49909,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR416" t="inlineStr">
+      <c r="AT416" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49538,7 +50018,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR417" t="inlineStr">
+      <c r="AT417" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49647,7 +50127,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR418" t="inlineStr">
+      <c r="AT418" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49758,6 +50238,11 @@
       </c>
       <c r="AR419" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT419" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -49865,7 +50350,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR420" t="inlineStr">
+      <c r="AT420" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49976,6 +50461,11 @@
       </c>
       <c r="AR421" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT421" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -50083,7 +50573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR422" t="inlineStr">
+      <c r="AT422" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50192,7 +50682,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR423" t="inlineStr">
+      <c r="AT423" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50301,7 +50791,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR424" t="inlineStr">
+      <c r="AT424" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50410,7 +50900,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR425" t="inlineStr">
+      <c r="AT425" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50519,7 +51009,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR426" t="inlineStr">
+      <c r="AT426" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50628,7 +51118,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR427" t="inlineStr">
+      <c r="AT427" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50737,7 +51227,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR428" t="inlineStr">
+      <c r="AT428" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50848,6 +51338,11 @@
       </c>
       <c r="AR429" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT429" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -50955,7 +51450,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR430" t="inlineStr">
+      <c r="AT430" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51064,7 +51559,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR431" t="inlineStr">
+      <c r="AT431" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51173,7 +51668,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR432" t="inlineStr">
+      <c r="AT432" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51282,7 +51777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR433" t="inlineStr">
+      <c r="AT433" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51440,6 +51935,11 @@
       </c>
       <c r="AR434" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT434" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -51596,6 +52096,11 @@
       </c>
       <c r="AR435" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT435" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -51752,6 +52257,11 @@
       </c>
       <c r="AR436" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT436" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -51908,6 +52418,11 @@
       </c>
       <c r="AR437" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT437" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52064,6 +52579,11 @@
       </c>
       <c r="AR438" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT438" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52220,6 +52740,11 @@
       </c>
       <c r="AR439" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT439" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52376,6 +52901,11 @@
       </c>
       <c r="AR440" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT440" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52532,6 +53062,11 @@
       </c>
       <c r="AR441" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT441" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52688,6 +53223,11 @@
       </c>
       <c r="AR442" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT442" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -52844,6 +53384,11 @@
       </c>
       <c r="AR443" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT443" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53000,6 +53545,11 @@
       </c>
       <c r="AR444" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT444" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53156,6 +53706,11 @@
       </c>
       <c r="AR445" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT445" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53312,6 +53867,11 @@
       </c>
       <c r="AR446" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT446" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53468,6 +54028,11 @@
       </c>
       <c r="AR447" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT447" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53624,6 +54189,11 @@
       </c>
       <c r="AR448" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT448" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53780,6 +54350,11 @@
       </c>
       <c r="AR449" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT449" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -53936,6 +54511,11 @@
       </c>
       <c r="AR450" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT450" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54092,6 +54672,11 @@
       </c>
       <c r="AR451" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT451" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54248,6 +54833,11 @@
       </c>
       <c r="AR452" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT452" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54362,6 +54952,11 @@
       </c>
       <c r="AR453" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT453" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54476,6 +55071,11 @@
       </c>
       <c r="AR454" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT454" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54590,6 +55190,11 @@
       </c>
       <c r="AR455" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT455" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54709,6 +55314,11 @@
       </c>
       <c r="AR456" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT456" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54823,6 +55433,11 @@
       </c>
       <c r="AR457" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT457" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -54937,6 +55552,11 @@
       </c>
       <c r="AR458" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT458" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55056,6 +55676,11 @@
       </c>
       <c r="AR459" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT459" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55170,6 +55795,11 @@
       </c>
       <c r="AR460" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT460" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55284,6 +55914,11 @@
       </c>
       <c r="AR461" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT461" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55398,6 +56033,11 @@
       </c>
       <c r="AR462" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT462" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55512,6 +56152,11 @@
       </c>
       <c r="AR463" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT463" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55626,6 +56271,16 @@
       </c>
       <c r="AR464" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS464" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT464" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55740,6 +56395,16 @@
       </c>
       <c r="AR465" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS465" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT465" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55854,6 +56519,11 @@
       </c>
       <c r="AR466" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT466" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -55968,6 +56638,11 @@
       </c>
       <c r="AR467" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT467" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56082,6 +56757,11 @@
       </c>
       <c r="AR468" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT468" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56196,6 +56876,11 @@
       </c>
       <c r="AR469" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT469" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56310,6 +56995,11 @@
       </c>
       <c r="AR470" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT470" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56424,6 +57114,11 @@
       </c>
       <c r="AR471" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT471" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56538,6 +57233,11 @@
       </c>
       <c r="AR472" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT472" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56652,6 +57352,11 @@
       </c>
       <c r="AR473" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT473" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56766,6 +57471,11 @@
       </c>
       <c r="AR474" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT474" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56880,6 +57590,11 @@
       </c>
       <c r="AR475" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT475" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -56994,6 +57709,11 @@
       </c>
       <c r="AR476" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT476" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57108,6 +57828,11 @@
       </c>
       <c r="AR477" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT477" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57222,6 +57947,11 @@
       </c>
       <c r="AR478" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT478" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57336,6 +58066,11 @@
       </c>
       <c r="AR479" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT479" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57450,6 +58185,11 @@
       </c>
       <c r="AR480" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT480" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57564,6 +58304,11 @@
       </c>
       <c r="AR481" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT481" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57678,6 +58423,11 @@
       </c>
       <c r="AR482" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT482" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57792,6 +58542,11 @@
       </c>
       <c r="AR483" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT483" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57906,6 +58661,11 @@
       </c>
       <c r="AR484" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT484" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58020,6 +58780,16 @@
       </c>
       <c r="AR485" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS485" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT485" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58134,6 +58904,16 @@
       </c>
       <c r="AR486" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS486" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT486" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58248,6 +59028,16 @@
       </c>
       <c r="AR487" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS487" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT487" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58362,6 +59152,16 @@
       </c>
       <c r="AR488" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS488" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT488" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58476,6 +59276,16 @@
       </c>
       <c r="AR489" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS489" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT489" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58590,6 +59400,16 @@
       </c>
       <c r="AR490" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS490" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT490" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58704,6 +59524,16 @@
       </c>
       <c r="AR491" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS491" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT491" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58818,6 +59648,16 @@
       </c>
       <c r="AR492" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS492" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT492" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58932,6 +59772,16 @@
       </c>
       <c r="AR493" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS493" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT493" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59046,6 +59896,16 @@
       </c>
       <c r="AR494" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS494" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT494" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59158,6 +60018,11 @@
       </c>
       <c r="AR495" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT495" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59283,7 +60148,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR496" t="inlineStr">
+      <c r="AT496" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -59402,6 +60267,11 @@
       </c>
       <c r="AR497" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT497" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59514,6 +60384,11 @@
       </c>
       <c r="AR498" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT498" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59657,6 +60532,11 @@
       </c>
       <c r="AR499" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT499" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59769,6 +60649,11 @@
       </c>
       <c r="AR500" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT500" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59926,6 +60811,11 @@
       </c>
       <c r="AR501" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT501" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -60038,13 +60928,18 @@
       </c>
       <c r="AR502" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT502" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS502" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU502" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
